--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>card.xlsx</t>
+  </si>
+  <si>
+    <t>config.TbBattlePreset</t>
+  </si>
+  <si>
+    <t>config.BattlePreset</t>
+  </si>
+  <si>
+    <t>battlepreset.xlsx</t>
   </si>
 </sst>
 </file>
@@ -825,6 +834,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1085,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
@@ -1246,6 +1262,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>battlepreset.xlsx</t>
+  </si>
+  <si>
+    <t>config.TbReward</t>
+  </si>
+  <si>
+    <t>config.Reward</t>
+  </si>
+  <si>
+    <t>reward.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1101,13 +1110,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
@@ -1276,6 +1285,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
